--- a/docs/assets/disciplinas/LOB1037.xlsx
+++ b/docs/assets/disciplinas/LOB1037.xlsx
@@ -82,7 +82,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8884940 - Paula Cristiane Pinto Mesquita Pardal</t>
+    <t>3682251 - Gabrielle Weber Martins</t>
   </si>
   <si>
     <t>Programa resumido:</t>

--- a/docs/assets/disciplinas/LOB1037.xlsx
+++ b/docs/assets/disciplinas/LOB1037.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar ao aluno conceitos básicos de Álgebra Linear, para posterior aplicação nos cursos subsequentes em inúmeros problemas de engenharia.</t>
+    <t>3682251 - Gabrielle Weber Martins</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3682251 - Gabrielle Weber Martins</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Espaços vetoriais, Transformações lineares, auto-valores e auto-vetores, diagonalização de Operadores, espaços vetoriais com produto interno, aplicações as equações diferenciais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>spaços vetoriais: Definição, Propriedades dos Espaços Vetoriais, Subespaços Vetoriais, Combinação Linear, Dependência e Independência Linear, Espaços Vetoriais Finitamente Gerados. Base e Dimensão de um Espaço Vetorial, mudança de Base.•Transformações lineares: Definição, Propriedades, Núcleo e Imagem de uma Transformação Linear, Teorema da Dimensão, Operadores Lineares, Inversa de uma transformação Linear. •Auto-valores e auto-vetores: Definição. Auto-valores e Auto-vetores de um Operador Linear. Polinômio Característico.•Diagonalização de operadores: Base de auto-vetores. Polinômio Mínimo. Diagonalização Simultânea de dois Operadores. Forma de Jordan.•Espaços vetoriais com produto interno: Definição e Propriedades, desigualdade de Cauchy-Schwarz, Ortogonalidade, bases ortonormais, processo de Gram-Schmidt, projeção ortogonal, Operador adjunto.•Aplicações: Equações e sistemas de equações diferenciais lineares de primeira ordem com coeficientes constantes, equações diferenciais homogêneas com coeficientes constantes. Equações em Diferença.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NF≥ 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>01.STRANG, Gilbert. Álgebra linear e suas aplicações, São Paulo: Cengage Learning, 2010.02.LIPSCHUTZ, Seymour . Algebra linear. 3. ed. São Paulo: Ed. McGrawHill. 1990.03.HOWARD, Anton ; RORRES,Chris. Álgebra linear com aplicações. 8. ed., Ed. Bookman, 2001.04.MICHOLSON, W. Keith. Álgebra linear. 2. ed. São Paulo: Ed. Mc GrawHill,  2006.05.BOLDRINI, José Luiz ; COSTA Sueli I. Rodrigues; FIGUEIREDO Vera Lúcia; WETZLER Henry G. Álgebra linear., 3. ed. São Paulo: Editora Harbra Ltda, 1986.06.POOLE, David. Álgebra linear. São Paulo: Pioneira Thomson Learning, 2004.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1037.xlsx
+++ b/docs/assets/disciplinas/LOB1037.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar ao aluno conceitos básicos de Álgebra Linear, para posterior aplicação nos cursos subsequentes em inúmeros problemas de engenharia.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To provide the student with basic concepts in linear algebra, for application in subsequent courses and engineering problems.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3682251 - Gabrielle Weber Martins</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To provide the student with basic concepts in linear algebra, for application in subsequent courses and engineering problems.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Espaços vetoriais, Transformações lineares, auto-valores e auto-vetores, diagonalização de Operadores, espaços vetoriais com produto interno, aplicações as equações diferenciais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>spaços vetoriais: Definição, Propriedades dos Espaços Vetoriais, Subespaços Vetoriais, Combinação Linear, Dependência e Independência Linear, Espaços Vetoriais Finitamente Gerados. Base e Dimensão de um Espaço Vetorial, mudança de Base.•Transformações lineares: Definição, Propriedades, Núcleo e Imagem de uma Transformação Linear, Teorema da Dimensão, Operadores Lineares, Inversa de uma transformação Linear. •Auto-valores e auto-vetores: Definição. Auto-valores e Auto-vetores de um Operador Linear. Polinômio Característico.•Diagonalização de operadores: Base de auto-vetores. Polinômio Mínimo. Diagonalização Simultânea de dois Operadores. Forma de Jordan.•Espaços vetoriais com produto interno: Definição e Propriedades, desigualdade de Cauchy-Schwarz, Ortogonalidade, bases ortonormais, processo de Gram-Schmidt, projeção ortogonal, Operador adjunto.•Aplicações: Equações e sistemas de equações diferenciais lineares de primeira ordem com coeficientes constantes, equações diferenciais homogêneas com coeficientes constantes. Equações em Diferença.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF≥ 5,0.</t>
+    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
+    <t>01.STRANG, Gilbert. Álgebra linear e suas aplicações, São Paulo: Cengage Learning, 2010.02.LIPSCHUTZ, Seymour . Algebra linear. 3. ed. São Paulo: Ed. McGrawHill. 1990.03.HOWARD, Anton ; RORRES,Chris. Álgebra linear com aplicações. 8. ed., Ed. Bookman, 2001.04.MICHOLSON, W. Keith. Álgebra linear. 2. ed. São Paulo: Ed. Mc GrawHill,  2006.05.BOLDRINI, José Luiz ; COSTA Sueli I. Rodrigues; FIGUEIREDO Vera Lúcia; WETZLER Henry G. Álgebra linear., 3. ed. São Paulo: Editora Harbra Ltda, 1986.06.POOLE, David. Álgebra linear. São Paulo: Pioneira Thomson Learning, 2004.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
